--- a/inventario/Plugin/Excel/Empleados/Empleados.xlsx
+++ b/inventario/Plugin/Excel/Empleados/Empleados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Usuario</t>
   </si>
@@ -32,88 +32,100 @@
     <t>Admin</t>
   </si>
   <si>
+    <t>Admin Master</t>
+  </si>
+  <si>
+    <t>Hospital Nacional Zacatecoluca PA "Santa Tereza"</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Ernesto Gonzales Choto</t>
+  </si>
+  <si>
+    <t>Usuario1</t>
+  </si>
+  <si>
+    <t>Baltazar Alexander Marinero Perez</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Usuario2</t>
+  </si>
+  <si>
+    <t>Fransico Tolentino López</t>
+  </si>
+  <si>
+    <t>Usuario3</t>
+  </si>
+  <si>
+    <t>René Adán Villaltá Perez</t>
+  </si>
+  <si>
+    <t>Usuario4</t>
+  </si>
+  <si>
+    <t>José Walter Pineda Leiva</t>
+  </si>
+  <si>
+    <t>Usuario5</t>
+  </si>
+  <si>
+    <t>Justo Antonio Alfaro</t>
+  </si>
+  <si>
+    <t>Usuario6</t>
+  </si>
+  <si>
+    <t>José Dominguez Echeverría</t>
+  </si>
+  <si>
+    <t>Usuario7</t>
+  </si>
+  <si>
+    <t>Nepoldo Alfaro Rodas</t>
+  </si>
+  <si>
+    <t>Usuario8</t>
+  </si>
+  <si>
+    <t>Miguel Antonio Corvera Torrez</t>
+  </si>
+  <si>
+    <t>Usuario9</t>
+  </si>
+  <si>
+    <t>Anderson Eduardo López Rodriguez</t>
+  </si>
+  <si>
+    <t>Usuario10</t>
+  </si>
+  <si>
+    <t>kevin Alexander Guevara Marinero</t>
+  </si>
+  <si>
+    <t>Usuario11</t>
+  </si>
+  <si>
+    <t>Yenifer Marisol Campos Yanez</t>
+  </si>
+  <si>
+    <t>Usuario12</t>
+  </si>
+  <si>
+    <t>kilmar Waldir Pérez Marin</t>
+  </si>
+  <si>
+    <t>Usuario13</t>
+  </si>
+  <si>
+    <t>Ronald Alexander Lopez Cisnero</t>
+  </si>
+  <si>
     <t>1 1</t>
-  </si>
-  <si>
-    <t>Hospital Nacional Zacatecoluca PA "Santa Tereza"</t>
-  </si>
-  <si>
-    <t>Administrador</t>
-  </si>
-  <si>
-    <t>Ernesto Gonzales Choto</t>
-  </si>
-  <si>
-    <t>Usuario1</t>
-  </si>
-  <si>
-    <t>Baltazar Alexander Marinero Perez</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Usuario4</t>
-  </si>
-  <si>
-    <t>José Walter Pineda Leiva</t>
-  </si>
-  <si>
-    <t>Usuario5</t>
-  </si>
-  <si>
-    <t>Justo Antonio Alfaro</t>
-  </si>
-  <si>
-    <t>Usuario6</t>
-  </si>
-  <si>
-    <t>José Dominguez Echeverría</t>
-  </si>
-  <si>
-    <t>Usuario7</t>
-  </si>
-  <si>
-    <t>Nepoldo Alfaro Rodas</t>
-  </si>
-  <si>
-    <t>Usuario8</t>
-  </si>
-  <si>
-    <t>Miguel Antonio Corvera Torrez</t>
-  </si>
-  <si>
-    <t>Usuario9</t>
-  </si>
-  <si>
-    <t>Anderson Eduardo López Rodriguez</t>
-  </si>
-  <si>
-    <t>Usuario10</t>
-  </si>
-  <si>
-    <t>kevin Alexander Guevara Marinero</t>
-  </si>
-  <si>
-    <t>Usuario11</t>
-  </si>
-  <si>
-    <t>Yenifer Marisol Campos Yanez</t>
-  </si>
-  <si>
-    <t>Usuario12</t>
-  </si>
-  <si>
-    <t>kilmar Waldir Pérez Marin</t>
-  </si>
-  <si>
-    <t>Usuario13</t>
-  </si>
-  <si>
-    <t>Ronald Alexander Lopez Cisnero</t>
-  </si>
-  <si>
-    <t>2 2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,31 +672,59 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
